--- a/codeTesting/jupyternotebookCode/File_example.xlsx
+++ b/codeTesting/jupyternotebookCode/File_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\SentimentAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\Sentimental-analysis-of-Professor-Performance\codeTesting\jupyternotebookCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925D86E-FCD2-43AF-89EC-6E30CC5DCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F99360-6641-41DC-8F97-039554353A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11775" xr2:uid="{3F9B299E-C2A9-475F-8616-D458FFF283B5}"/>
+    <workbookView xWindow="5160" yWindow="432" windowWidth="17280" windowHeight="9072" xr2:uid="{3F9B299E-C2A9-475F-8616-D458FFF283B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Very good teacher</t>
   </si>
   <si>
-    <t>She teaches very well</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
@@ -68,13 +65,43 @@
     <t>bad experience</t>
   </si>
   <si>
-    <t xml:space="preserve">An average experience </t>
-  </si>
-  <si>
     <t>I love the way she teaches</t>
   </si>
   <si>
     <t>She is very considerate to us</t>
+  </si>
+  <si>
+    <t>di naman siya magaling magturo</t>
+  </si>
+  <si>
+    <t>panget</t>
+  </si>
+  <si>
+    <t>ewan ko</t>
+  </si>
+  <si>
+    <t>okay lang naman</t>
+  </si>
+  <si>
+    <t>okay lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okay naman siguro </t>
+  </si>
+  <si>
+    <t>ang panget niya magturo</t>
+  </si>
+  <si>
+    <t>sobrang boring ng klase and mahirap sundin yung tinuturo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ang boring talaga </t>
+  </si>
+  <si>
+    <t>panget niya magturo eh</t>
+  </si>
+  <si>
+    <t>hindi magaling</t>
   </si>
 </sst>
 </file>
@@ -446,80 +473,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33FDB07-C04D-47BE-9406-89DEC4F79C5F}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
